--- a/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>General Ledger [Details]</t>
   </si>
@@ -41,6 +41,12 @@
     <t>Contact</t>
   </si>
   <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Track-2</t>
+  </si>
+  <si>
     <t>Debit</t>
   </si>
   <si>
@@ -72,6 +78,12 @@
   </si>
   <si>
     <t>{{contact_name}}</t>
+  </si>
+  <si>
+    <t>{{track_code}}</t>
+  </si>
+  <si>
+    <t>{{track2_code}}</t>
   </si>
   <si>
     <t>{{currency debit zero=””}}</t>
@@ -97,68 +109,68 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="#,##0.00_);\(#,##0.00\)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
   <fonts count="9">
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <color rgb="00800000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00800000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
       <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,19 +182,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
-        <bgColor rgb="00CCCCFF"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00000080"/>
-        <bgColor rgb="00000080"/>
+        <fgColor rgb="FF000080"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -191,73 +203,87 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -267,25 +293,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E10" activeCellId="0" pane="topLeft" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.6117647058823"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.3921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.6173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4540816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.5918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3928571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.95408163265306"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="1" s="2">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -294,8 +321,10 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="2" s="2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -303,11 +332,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="3" s="2">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
@@ -315,11 +346,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="4" s="6">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -327,11 +360,13 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="5" s="2">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -340,8 +375,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6" s="2">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -366,64 +403,76 @@
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
+        <v>14</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+        <v>23</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -434,7 +483,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>General Ledger [Details]</t>
   </si>
@@ -24,6 +24,21 @@
   </si>
   <si>
     <t>From {{fmt_date date_from}} to {{fmt_date date_to}}</t>
+  </si>
+  <si>
+    <t>{{#if track_name}}</t>
+  </si>
+  <si>
+    <t>Tracking: {{track_name}}</t>
+  </si>
+  <si>
+    <t>{{/if}}</t>
+  </si>
+  <si>
+    <t>{{#if track2_name}}</t>
+  </si>
+  <si>
+    <t>Tracking2: {{track2_name}}</t>
   </si>
   <si>
     <t>Account Code</t>
@@ -293,10 +308,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -366,120 +381,198 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="I11" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="J13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="C15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="D15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="E15" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="11" t="s">
+      <c r="G15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>26</v>
+      <c r="I15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>General Ledger [Details]</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>Currency Amount</t>
+  </si>
+  <si>
     <t>{{#each accounts}}</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
   </si>
   <si>
     <t>{{currency balance}}</t>
+  </si>
+  <si>
+    <t>{{currency amount_cur}}</t>
   </si>
   <si>
     <t>{{/each}}</t>
@@ -308,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -324,7 +330,8 @@
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.5918367346939"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3928571428571"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.95408163265306"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -338,6 +345,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -352,6 +360,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -366,6 +375,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -380,8 +390,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -394,8 +405,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
@@ -408,6 +420,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -422,6 +435,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -436,6 +450,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
@@ -450,6 +465,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -464,6 +480,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -496,70 +513,76 @@
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H17" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>General Ledger [Details]</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Number</t>
   </si>
   <si>
+    <t>Tax No.</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>{{number}}</t>
+  </si>
+  <si>
+    <t>{{tax_no}}</t>
   </si>
   <si>
     <t>{{description}}</t>
@@ -314,10 +320,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -325,13 +331,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4387755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4948979591837"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.6173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4540816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="17.5918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.6173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4540816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="17.5918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.6020408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.95408163265306"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -346,6 +353,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -357,10 +365,11 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -372,10 +381,11 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -387,10 +397,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -402,10 +413,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -417,10 +429,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -432,10 +445,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -447,10 +461,11 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
@@ -462,10 +477,11 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -475,12 +491,13 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -516,86 +533,92 @@
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="H15" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="I15" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="I17" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
@@ -29,7 +29,7 @@
     <t>{{#if track_name}}</t>
   </si>
   <si>
-    <t>Tracking: {{track_name}}</t>
+    <t>Tracking-1: {{track_name}}</t>
   </si>
   <si>
     <t>{{/if}}</t>
@@ -38,7 +38,7 @@
     <t>{{#if track2_name}}</t>
   </si>
   <si>
-    <t>Tracking2: {{track2_name}}</t>
+    <t>Tracking-2: {{track2_name}}</t>
   </si>
   <si>
     <t>Account Code</t>
@@ -323,7 +323,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
@@ -59,7 +59,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Track</t>
+    <t>Track-1</t>
   </si>
   <si>
     <t>Track-2</t>
@@ -323,7 +323,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
+++ b/netforce_account_report/netforce_account_report/reports/account_gl_detail.xlsx
@@ -59,10 +59,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Track-1</t>
-  </si>
-  <si>
-    <t>Track-2</t>
+    <t>Tracking-1</t>
+  </si>
+  <si>
+    <t>Tracking-2</t>
   </si>
   <si>
     <t>Debit</t>
@@ -323,7 +323,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
